--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>531890.162636732</v>
+        <v>398567.5785859505</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1278033.348616487</v>
+        <v>1131408.985508541</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23525779.16017342</v>
+        <v>23404002.81660419</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4982561.346577018</v>
+        <v>5035762.340460537</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.96885011499904</v>
+        <v>13.18456318129113</v>
       </c>
       <c r="R11" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="T11" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>13.18456318129113</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="J12" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>14.96885011499904</v>
+        <v>22.85584894357566</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>25.94896564892787</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.3268443655670882</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1849,25 +1849,25 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29.23886660620531</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="V20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="W20" t="n">
-        <v>25.75359370674562</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.23886660620531</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="T21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="U21" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>25.75359370674562</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2329,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="H23" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="I23" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>53.13548445656516</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>53.13548445656516</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2441,25 +2441,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>44.15291272711835</v>
       </c>
       <c r="W24" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.13548445656518</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>44.15291272711835</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="T27" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>30.60647987855659</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>53.13548445656517</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="W29" t="n">
-        <v>60.32639016412941</v>
+        <v>66.68191730512692</v>
       </c>
       <c r="X29" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>66.68191730512692</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2915,22 +2915,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>30.6064798785566</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>53.13548445656518</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="S33" t="n">
-        <v>30.60647987855659</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>44.15291272711835</v>
       </c>
       <c r="U33" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="V33" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="I35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.49735412383573</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>53.49735412383573</v>
       </c>
       <c r="C36" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>39.95092127527401</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="E36" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="H38" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>43.8260683615512</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>43.8260683615512</v>
       </c>
       <c r="E39" t="n">
-        <v>17.42191669726541</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842781</v>
       </c>
     </row>
     <row r="40">
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>27.38189074981954</v>
+        <v>26.73099602985286</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>4.852886171810955</v>
+        <v>26.73099602985286</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
     </row>
     <row r="43">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>26.73099602985286</v>
       </c>
       <c r="C44" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="D44" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="E44" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>27.38189074981954</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.852886171810953</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4100,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>26.73099602985286</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="V45" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.197508009199924</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="C11" t="n">
-        <v>1.197508009199924</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="D11" t="n">
-        <v>1.197508009199924</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="E11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="G11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="H11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L11" t="n">
-        <v>16.01666962304898</v>
+        <v>16.01666962304894</v>
       </c>
       <c r="M11" t="n">
-        <v>30.83583123689803</v>
+        <v>30.23707723229801</v>
       </c>
       <c r="N11" t="n">
-        <v>31.10175243980932</v>
+        <v>45.05623884614702</v>
       </c>
       <c r="O11" t="n">
-        <v>45.92091405365837</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="P11" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.75534983878502</v>
+        <v>46.55765987283328</v>
       </c>
       <c r="R11" t="n">
-        <v>29.63529921757386</v>
+        <v>46.55765987283328</v>
       </c>
       <c r="S11" t="n">
-        <v>14.5152485963627</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="T11" t="n">
-        <v>1.197508009199924</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="U11" t="n">
-        <v>1.197508009199924</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="V11" t="n">
-        <v>1.197508009199924</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="W11" t="n">
-        <v>1.197508009199924</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="X11" t="n">
-        <v>1.197508009199924</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.197508009199924</v>
+        <v>31.43760925162216</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.75534983878502</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="C12" t="n">
-        <v>44.75534983878502</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="D12" t="n">
-        <v>44.75534983878502</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="E12" t="n">
-        <v>44.75534983878502</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="F12" t="n">
-        <v>44.75534983878502</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="G12" t="n">
-        <v>44.75534983878502</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="H12" t="n">
-        <v>31.43760925162223</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="I12" t="n">
-        <v>16.31755863041108</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="J12" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K12" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L12" t="n">
-        <v>15.41791561844898</v>
+        <v>15.41791561844897</v>
       </c>
       <c r="M12" t="n">
-        <v>30.23707723229803</v>
+        <v>30.237077232298</v>
       </c>
       <c r="N12" t="n">
-        <v>45.05623884614708</v>
+        <v>45.05623884614702</v>
       </c>
       <c r="O12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="P12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Q12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="R12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="S12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="T12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="U12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="V12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="W12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="X12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="C13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="D13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="E13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="G13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="H13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="M13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="N13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="O13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="P13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="R13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="S13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="T13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="U13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="V13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="W13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="X13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.87540045999617</v>
+        <v>25.16263335653611</v>
       </c>
       <c r="C14" t="n">
-        <v>59.87540045999617</v>
+        <v>25.16263335653611</v>
       </c>
       <c r="D14" t="n">
-        <v>59.87540045999617</v>
+        <v>25.16263335653611</v>
       </c>
       <c r="E14" t="n">
-        <v>59.87540045999617</v>
+        <v>25.16263335653611</v>
       </c>
       <c r="F14" t="n">
-        <v>59.87540045999617</v>
+        <v>25.16263335653611</v>
       </c>
       <c r="G14" t="n">
-        <v>46.55765987283339</v>
+        <v>25.16263335653611</v>
       </c>
       <c r="H14" t="n">
-        <v>31.43760925162223</v>
+        <v>25.16263335653611</v>
       </c>
       <c r="I14" t="n">
-        <v>16.31755863041108</v>
+        <v>25.16263335653611</v>
       </c>
       <c r="J14" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="K14" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="L14" t="n">
-        <v>16.01666962304898</v>
+        <v>27.76539324435283</v>
       </c>
       <c r="M14" t="n">
-        <v>30.83583123689803</v>
+        <v>53.45486923679142</v>
       </c>
       <c r="N14" t="n">
-        <v>31.10175243980926</v>
+        <v>79.14434522923003</v>
       </c>
       <c r="O14" t="n">
-        <v>45.92091405365831</v>
+        <v>103.7958625957115</v>
       </c>
       <c r="P14" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957115</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957115</v>
       </c>
       <c r="R14" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957115</v>
       </c>
       <c r="S14" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957115</v>
       </c>
       <c r="T14" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957115</v>
       </c>
       <c r="U14" t="n">
-        <v>59.87540045999617</v>
+        <v>77.58478618265303</v>
       </c>
       <c r="V14" t="n">
-        <v>59.87540045999617</v>
+        <v>51.37370976959457</v>
       </c>
       <c r="W14" t="n">
-        <v>59.87540045999617</v>
+        <v>51.37370976959457</v>
       </c>
       <c r="X14" t="n">
-        <v>59.87540045999617</v>
+        <v>51.37370976959457</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.87540045999617</v>
+        <v>25.16263335653611</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.87540045999617</v>
+        <v>28.28699366497269</v>
       </c>
       <c r="C15" t="n">
-        <v>59.87540045999617</v>
+        <v>28.28699366497269</v>
       </c>
       <c r="D15" t="n">
-        <v>59.87540045999617</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="E15" t="n">
-        <v>59.87540045999617</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="F15" t="n">
-        <v>59.87540045999617</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="G15" t="n">
-        <v>46.55765987283339</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="H15" t="n">
-        <v>31.43760925162223</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="I15" t="n">
-        <v>16.31755863041108</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="J15" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="K15" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="L15" t="n">
-        <v>15.41791561844901</v>
+        <v>16.29632486116331</v>
       </c>
       <c r="M15" t="n">
-        <v>30.23707723229806</v>
+        <v>41.98580085360191</v>
       </c>
       <c r="N15" t="n">
-        <v>45.05623884614712</v>
+        <v>67.6752768460405</v>
       </c>
       <c r="O15" t="n">
-        <v>59.87540045999617</v>
+        <v>93.36475283847909</v>
       </c>
       <c r="P15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957115</v>
       </c>
       <c r="Q15" t="n">
-        <v>59.87540045999617</v>
+        <v>81.03929231489475</v>
       </c>
       <c r="R15" t="n">
-        <v>59.87540045999617</v>
+        <v>81.03929231489475</v>
       </c>
       <c r="S15" t="n">
-        <v>59.87540045999617</v>
+        <v>81.03929231489475</v>
       </c>
       <c r="T15" t="n">
-        <v>59.87540045999617</v>
+        <v>54.82821590183629</v>
       </c>
       <c r="U15" t="n">
-        <v>59.87540045999617</v>
+        <v>54.82821590183629</v>
       </c>
       <c r="V15" t="n">
-        <v>59.87540045999617</v>
+        <v>54.49807007803115</v>
       </c>
       <c r="W15" t="n">
-        <v>59.87540045999617</v>
+        <v>28.28699366497269</v>
       </c>
       <c r="X15" t="n">
-        <v>59.87540045999617</v>
+        <v>28.28699366497269</v>
       </c>
       <c r="Y15" t="n">
-        <v>59.87540045999617</v>
+        <v>28.28699366497269</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="C16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="D16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="E16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="F16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="G16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="H16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="I16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="J16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="K16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="L16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="M16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="N16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="O16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="P16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="R16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="S16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="T16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="U16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="V16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="W16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="X16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.07591725191423</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>116.9554664248212</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="C17" t="n">
-        <v>116.9554664248212</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="D17" t="n">
-        <v>116.9554664248212</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="E17" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F17" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G17" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H17" t="n">
-        <v>61.40752671476977</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I17" t="n">
-        <v>31.8733180216331</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L17" t="n">
-        <v>31.28558726863968</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M17" t="n">
-        <v>60.23206520878293</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N17" t="n">
-        <v>89.17854314892618</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O17" t="n">
-        <v>103.0009800184834</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="V17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="W17" t="n">
-        <v>116.9554664248212</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="X17" t="n">
-        <v>116.9554664248212</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="Y17" t="n">
-        <v>116.9554664248212</v>
+        <v>95.25999724257764</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>116.9554664248212</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="C18" t="n">
-        <v>90.94173540790645</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="D18" t="n">
-        <v>90.94173540790645</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="E18" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F18" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G18" t="n">
-        <v>61.40752671476977</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H18" t="n">
-        <v>31.8733180216331</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I18" t="n">
-        <v>31.8733180216331</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L18" t="n">
-        <v>30.11603260439146</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M18" t="n">
-        <v>59.06251054453472</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N18" t="n">
-        <v>88.00898848467797</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O18" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="P18" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R18" t="n">
-        <v>116.9554664248212</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="S18" t="n">
-        <v>116.9554664248212</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="T18" t="n">
-        <v>116.9554664248212</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="U18" t="n">
-        <v>116.9554664248212</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="V18" t="n">
-        <v>116.9554664248212</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="W18" t="n">
-        <v>116.9554664248212</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="X18" t="n">
-        <v>116.9554664248212</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.9554664248212</v>
+        <v>43.98306913855064</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L20" t="n">
-        <v>16.1615461980536</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M20" t="n">
-        <v>45.10802413819685</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N20" t="n">
-        <v>74.05450207834011</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O20" t="n">
-        <v>103.0009800184834</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T20" t="n">
-        <v>87.42125773168455</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U20" t="n">
-        <v>57.88704903854787</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="V20" t="n">
-        <v>28.3528403454112</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="W20" t="n">
-        <v>2.339109328496424</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="X20" t="n">
-        <v>2.339109328496424</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.339109328496424</v>
+        <v>49.44430022325403</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L21" t="n">
-        <v>30.11603260439146</v>
+        <v>17.84901081317951</v>
       </c>
       <c r="M21" t="n">
-        <v>59.06251054453472</v>
+        <v>62.75297546181857</v>
       </c>
       <c r="N21" t="n">
-        <v>88.00898848467797</v>
+        <v>107.6569401104576</v>
       </c>
       <c r="O21" t="n">
-        <v>116.9554664248212</v>
+        <v>152.5609047590967</v>
       </c>
       <c r="P21" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R21" t="n">
-        <v>87.42125773168455</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="S21" t="n">
-        <v>87.42125773168455</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="T21" t="n">
-        <v>57.88704903854787</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="U21" t="n">
-        <v>28.3528403454112</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="V21" t="n">
-        <v>2.339109328496424</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="W21" t="n">
-        <v>2.339109328496424</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="X21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>180.3698130159829</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="C23" t="n">
-        <v>180.3698130159829</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="D23" t="n">
-        <v>180.3698130159829</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="E23" t="n">
-        <v>180.3698130159829</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="F23" t="n">
-        <v>180.3698130159829</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="G23" t="n">
-        <v>180.3698130159829</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="H23" t="n">
-        <v>119.4340653754481</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I23" t="n">
-        <v>58.49831773491334</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J23" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K23" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L23" t="n">
-        <v>62.79240300828037</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M23" t="n">
-        <v>122.5155292707685</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N23" t="n">
-        <v>182.2386555332566</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O23" t="n">
-        <v>227.3510742501798</v>
+        <v>288.8698428630849</v>
       </c>
       <c r="P23" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q23" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R23" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S23" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T23" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U23" t="n">
-        <v>241.3055606565176</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="V23" t="n">
-        <v>241.3055606565176</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="W23" t="n">
-        <v>241.3055606565176</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="X23" t="n">
-        <v>241.3055606565176</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="Y23" t="n">
-        <v>180.3698130159829</v>
+        <v>235.4688572440421</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>180.3698130159829</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C24" t="n">
-        <v>119.4340653754481</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D24" t="n">
-        <v>119.4340653754481</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E24" t="n">
-        <v>58.49831773491334</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F24" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G24" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H24" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I24" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J24" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K24" t="n">
-        <v>33.09180516138317</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L24" t="n">
-        <v>47.31221277063226</v>
+        <v>56.81472617466314</v>
       </c>
       <c r="M24" t="n">
-        <v>92.21617741927132</v>
+        <v>131.7637476688453</v>
       </c>
       <c r="N24" t="n">
-        <v>151.9393036817594</v>
+        <v>198.9288298350974</v>
       </c>
       <c r="O24" t="n">
-        <v>181.5824343940295</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="P24" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q24" t="n">
-        <v>241.3055606565176</v>
+        <v>280.067758988606</v>
       </c>
       <c r="R24" t="n">
-        <v>241.3055606565176</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="S24" t="n">
-        <v>241.3055606565176</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="T24" t="n">
-        <v>241.3055606565176</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="U24" t="n">
-        <v>241.3055606565176</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="V24" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W24" t="n">
-        <v>180.3698130159829</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X24" t="n">
-        <v>180.3698130159829</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y24" t="n">
-        <v>180.3698130159829</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.826111213130353</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="C26" t="n">
-        <v>4.826111213130353</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="D26" t="n">
-        <v>4.826111213130353</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="E26" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="F26" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="G26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L26" t="n">
-        <v>62.79240300828037</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M26" t="n">
-        <v>122.5155292707685</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N26" t="n">
-        <v>182.2386555332566</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O26" t="n">
-        <v>227.3510742501798</v>
+        <v>288.8698428630849</v>
       </c>
       <c r="P26" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.6333541347346</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R26" t="n">
-        <v>126.6976064941999</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S26" t="n">
-        <v>65.7618588536651</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T26" t="n">
-        <v>65.7618588536651</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U26" t="n">
-        <v>4.826111213130353</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="V26" t="n">
-        <v>4.826111213130353</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="W26" t="n">
-        <v>4.826111213130353</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="X26" t="n">
-        <v>4.826111213130353</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.826111213130353</v>
+        <v>158.9980670244909</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.826111213130353</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="C27" t="n">
-        <v>4.826111213130353</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="D27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L27" t="n">
-        <v>62.1361818690533</v>
+        <v>81.00550807957059</v>
       </c>
       <c r="M27" t="n">
-        <v>121.8593081315414</v>
+        <v>125.9094727282096</v>
       </c>
       <c r="N27" t="n">
-        <v>181.5824343940295</v>
+        <v>198.9288298350974</v>
       </c>
       <c r="O27" t="n">
-        <v>241.3055606565176</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="P27" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.5489903757009</v>
+        <v>280.067758988606</v>
       </c>
       <c r="R27" t="n">
-        <v>218.5489903757009</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="S27" t="n">
-        <v>218.5489903757009</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="T27" t="n">
-        <v>157.6132427351661</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="U27" t="n">
-        <v>96.67749509463137</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="V27" t="n">
-        <v>35.74174745409661</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="W27" t="n">
-        <v>4.826111213130353</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="X27" t="n">
-        <v>4.826111213130353</v>
+        <v>50.65538832995244</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.826111213130353</v>
+        <v>50.65538832995244</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y28" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L29" t="n">
-        <v>62.79240300828037</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M29" t="n">
-        <v>122.5155292707685</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N29" t="n">
-        <v>182.2386555332566</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O29" t="n">
-        <v>227.3510742501798</v>
+        <v>288.8698428630849</v>
       </c>
       <c r="P29" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q29" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R29" t="n">
-        <v>180.3698130159829</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S29" t="n">
-        <v>180.3698130159829</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T29" t="n">
-        <v>126.6976064941999</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U29" t="n">
-        <v>126.6976064941999</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="V29" t="n">
-        <v>126.6976064941999</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="W29" t="n">
-        <v>65.7618588536651</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="X29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.826111213130353</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="C30" t="n">
-        <v>4.826111213130353</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="D30" t="n">
-        <v>4.826111213130353</v>
+        <v>73.41195861076919</v>
       </c>
       <c r="E30" t="n">
-        <v>4.826111213130353</v>
+        <v>73.41195861076919</v>
       </c>
       <c r="F30" t="n">
-        <v>4.826111213130353</v>
+        <v>73.41195861076919</v>
       </c>
       <c r="G30" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H30" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I30" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J30" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K30" t="n">
-        <v>4.826111213130353</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L30" t="n">
-        <v>19.04651882237944</v>
+        <v>86.85978302020621</v>
       </c>
       <c r="M30" t="n">
-        <v>63.9504834710185</v>
+        <v>131.7637476688453</v>
       </c>
       <c r="N30" t="n">
-        <v>123.6736097335066</v>
+        <v>198.9288298350974</v>
       </c>
       <c r="O30" t="n">
-        <v>181.5824343940295</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="P30" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.5489903757009</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R30" t="n">
-        <v>157.6132427351661</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S30" t="n">
-        <v>157.6132427351661</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T30" t="n">
-        <v>96.67749509463137</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U30" t="n">
-        <v>65.7618588536651</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="V30" t="n">
-        <v>65.7618588536651</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="W30" t="n">
-        <v>65.7618588536651</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="X30" t="n">
-        <v>65.7618588536651</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.826111213130353</v>
+        <v>149.8827488303204</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>187.6333541347346</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="C32" t="n">
-        <v>187.6333541347346</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="D32" t="n">
-        <v>187.6333541347346</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="E32" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="F32" t="n">
-        <v>65.7618588536651</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="G32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L32" t="n">
-        <v>62.79240300828037</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M32" t="n">
-        <v>122.5155292707685</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N32" t="n">
-        <v>182.2386555332566</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O32" t="n">
-        <v>227.3510742501798</v>
+        <v>288.8698428630849</v>
       </c>
       <c r="P32" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q32" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R32" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S32" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T32" t="n">
-        <v>187.6333541347346</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U32" t="n">
-        <v>187.6333541347346</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="V32" t="n">
-        <v>187.6333541347346</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="W32" t="n">
-        <v>187.6333541347346</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="X32" t="n">
-        <v>187.6333541347346</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="Y32" t="n">
-        <v>187.6333541347346</v>
+        <v>82.52727680493966</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="C33" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="D33" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="E33" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="F33" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="G33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K33" t="n">
-        <v>4.826111213130353</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L33" t="n">
-        <v>64.54923747561847</v>
+        <v>86.85978302020621</v>
       </c>
       <c r="M33" t="n">
-        <v>121.8593081315414</v>
+        <v>131.7637476688453</v>
       </c>
       <c r="N33" t="n">
-        <v>181.5824343940295</v>
+        <v>198.9288298350974</v>
       </c>
       <c r="O33" t="n">
-        <v>241.3055606565176</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="P33" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.5489903757009</v>
+        <v>280.067758988606</v>
       </c>
       <c r="R33" t="n">
-        <v>218.5489903757009</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="S33" t="n">
-        <v>187.6333541347346</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="T33" t="n">
-        <v>187.6333541347346</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="U33" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="V33" t="n">
-        <v>65.7618588536651</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="W33" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="X33" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493966</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y34" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>181.4301601965215</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="C35" t="n">
-        <v>181.4301601965215</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="D35" t="n">
-        <v>181.4301601965215</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="E35" t="n">
-        <v>141.0756942619012</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="F35" t="n">
-        <v>141.0756942619012</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="G35" t="n">
-        <v>141.0756942619012</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="H35" t="n">
-        <v>95.25999724257764</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="I35" t="n">
-        <v>49.44430022325403</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="J35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="K35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="L35" t="n">
-        <v>32.76377984426642</v>
+        <v>62.82527037133855</v>
       </c>
       <c r="M35" t="n">
-        <v>77.66774449290548</v>
+        <v>122.9551302516717</v>
       </c>
       <c r="N35" t="n">
-        <v>122.5717091415445</v>
+        <v>183.0849901320048</v>
       </c>
       <c r="O35" t="n">
-        <v>167.4756737901836</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="P35" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="R35" t="n">
-        <v>181.4301601965215</v>
+        <v>188.9111973712088</v>
       </c>
       <c r="S35" t="n">
-        <v>181.4301601965215</v>
+        <v>188.9111973712088</v>
       </c>
       <c r="T35" t="n">
-        <v>181.4301601965215</v>
+        <v>127.5604577728687</v>
       </c>
       <c r="U35" t="n">
-        <v>181.4301601965215</v>
+        <v>127.5604577728687</v>
       </c>
       <c r="V35" t="n">
-        <v>181.4301601965215</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="W35" t="n">
-        <v>181.4301601965215</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="X35" t="n">
-        <v>181.4301601965215</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="Y35" t="n">
-        <v>181.4301601965215</v>
+        <v>66.20971817452862</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>181.4301601965215</v>
+        <v>188.9111973712088</v>
       </c>
       <c r="C36" t="n">
-        <v>135.6144631771978</v>
+        <v>188.9111973712088</v>
       </c>
       <c r="D36" t="n">
-        <v>95.25999724257764</v>
+        <v>127.5604577728687</v>
       </c>
       <c r="E36" t="n">
-        <v>49.44430022325403</v>
+        <v>127.5604577728687</v>
       </c>
       <c r="F36" t="n">
-        <v>3.628603203930429</v>
+        <v>66.20971817452862</v>
       </c>
       <c r="G36" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="H36" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="I36" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="J36" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="K36" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="L36" t="n">
-        <v>48.53256785256949</v>
+        <v>19.07938618543762</v>
       </c>
       <c r="M36" t="n">
-        <v>93.43653250120855</v>
+        <v>63.98335083407667</v>
       </c>
       <c r="N36" t="n">
-        <v>138.3404971498476</v>
+        <v>124.1132107144098</v>
       </c>
       <c r="O36" t="n">
-        <v>181.4301601965215</v>
+        <v>182.8190689290936</v>
       </c>
       <c r="P36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="Q36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="R36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="S36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="T36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="U36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="V36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="W36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="X36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="Y36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="C37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="D37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="E37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="F37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="G37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="H37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="I37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="J37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="K37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="L37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="M37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="N37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="O37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="P37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="R37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="S37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="T37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="U37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="V37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="W37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="X37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188535</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.0756942619012</v>
+        <v>104.4999969464597</v>
       </c>
       <c r="C38" t="n">
-        <v>141.0756942619012</v>
+        <v>104.4999969464597</v>
       </c>
       <c r="D38" t="n">
-        <v>95.25999724257764</v>
+        <v>104.4999969464597</v>
       </c>
       <c r="E38" t="n">
-        <v>49.44430022325403</v>
+        <v>104.4999969464597</v>
       </c>
       <c r="F38" t="n">
-        <v>49.44430022325403</v>
+        <v>54.24028313996696</v>
       </c>
       <c r="G38" t="n">
-        <v>49.44430022325403</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="H38" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="I38" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="J38" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="K38" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="L38" t="n">
-        <v>48.53256785256949</v>
+        <v>53.24011483521775</v>
       </c>
       <c r="M38" t="n">
-        <v>77.66774449290548</v>
+        <v>102.4996603369613</v>
       </c>
       <c r="N38" t="n">
-        <v>122.5717091415445</v>
+        <v>151.7592058387048</v>
       </c>
       <c r="O38" t="n">
-        <v>167.4756737901836</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="P38" t="n">
-        <v>181.4301601965215</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.4301601965215</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="R38" t="n">
-        <v>181.4301601965215</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="S38" t="n">
-        <v>141.0756942619012</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="T38" t="n">
-        <v>141.0756942619012</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="U38" t="n">
-        <v>141.0756942619012</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="V38" t="n">
-        <v>141.0756942619012</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="W38" t="n">
-        <v>141.0756942619012</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="X38" t="n">
-        <v>141.0756942619012</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.0756942619012</v>
+        <v>154.7597107529525</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>67.04219587705748</v>
+        <v>98.50903906072575</v>
       </c>
       <c r="C39" t="n">
-        <v>67.04219587705748</v>
+        <v>48.24932525423301</v>
       </c>
       <c r="D39" t="n">
-        <v>67.04219587705748</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="E39" t="n">
-        <v>49.44430022325403</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="F39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="G39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="H39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="I39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="J39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="K39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="L39" t="n">
-        <v>46.71826625060427</v>
+        <v>53.24011483521775</v>
       </c>
       <c r="M39" t="n">
-        <v>91.62223089924333</v>
+        <v>98.14407948385681</v>
       </c>
       <c r="N39" t="n">
-        <v>136.5261955478824</v>
+        <v>147.4036249856003</v>
       </c>
       <c r="O39" t="n">
-        <v>181.4301601965215</v>
+        <v>176.3501029257436</v>
       </c>
       <c r="P39" t="n">
-        <v>181.4301601965215</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6735899157047</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="R39" t="n">
-        <v>158.6735899157047</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="S39" t="n">
-        <v>158.6735899157047</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="T39" t="n">
-        <v>158.6735899157047</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="U39" t="n">
-        <v>158.6735899157047</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="V39" t="n">
-        <v>158.6735899157047</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="W39" t="n">
-        <v>158.6735899157047</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="X39" t="n">
-        <v>112.8578928963811</v>
+        <v>199.0284666737113</v>
       </c>
       <c r="Y39" t="n">
-        <v>67.04219587705748</v>
+        <v>148.7687528672185</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="C40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="D40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="E40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="F40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="G40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="H40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="I40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="J40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="K40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="L40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="M40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="N40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="O40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="P40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="Q40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="R40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="S40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="T40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="U40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="V40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="W40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="X40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
       <c r="Y40" t="n">
-        <v>181.4301601965215</v>
+        <v>3.980569333474225</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>65.2900797794301</v>
+        <v>94.39316298214082</v>
       </c>
       <c r="C41" t="n">
-        <v>33.88854083203201</v>
+        <v>94.39316298214082</v>
       </c>
       <c r="D41" t="n">
-        <v>2.487001884633928</v>
+        <v>94.39316298214082</v>
       </c>
       <c r="E41" t="n">
-        <v>2.487001884633928</v>
+        <v>94.39316298214082</v>
       </c>
       <c r="F41" t="n">
-        <v>2.487001884633928</v>
+        <v>63.73806978191323</v>
       </c>
       <c r="G41" t="n">
-        <v>2.487001884633928</v>
+        <v>33.08297658168563</v>
       </c>
       <c r="H41" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="I41" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="J41" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="K41" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="L41" t="n">
-        <v>33.26365020697879</v>
+        <v>32.4729402270011</v>
       </c>
       <c r="M41" t="n">
-        <v>64.04029852932365</v>
+        <v>62.51799707254416</v>
       </c>
       <c r="N41" t="n">
-        <v>94.8169468516685</v>
+        <v>92.56305391808723</v>
       </c>
       <c r="O41" t="n">
-        <v>110.3956078253586</v>
+        <v>107.4396826665635</v>
       </c>
       <c r="P41" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Q41" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="R41" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="S41" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="T41" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="U41" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="V41" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="W41" t="n">
-        <v>92.94855528429832</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="X41" t="n">
-        <v>92.94855528429832</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Y41" t="n">
-        <v>65.2900797794301</v>
+        <v>94.39316298214082</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.388907108685398</v>
+        <v>29.4288894722185</v>
       </c>
       <c r="C42" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="D42" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="E42" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="F42" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="G42" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="H42" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="I42" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="J42" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="K42" t="n">
-        <v>19.62991203761441</v>
+        <v>18.13716983242287</v>
       </c>
       <c r="L42" t="n">
-        <v>33.85031964686347</v>
+        <v>32.35757744167192</v>
       </c>
       <c r="M42" t="n">
-        <v>64.62696796920832</v>
+        <v>62.40263428721499</v>
       </c>
       <c r="N42" t="n">
-        <v>95.40361629155318</v>
+        <v>92.44769113275807</v>
       </c>
       <c r="O42" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Q42" t="n">
-        <v>101.5935239508796</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="R42" t="n">
-        <v>101.5935239508796</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="S42" t="n">
-        <v>101.5935239508796</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="T42" t="n">
-        <v>101.5935239508796</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="U42" t="n">
-        <v>101.5935239508796</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="V42" t="n">
-        <v>101.5935239508796</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="W42" t="n">
-        <v>70.19198500348156</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="X42" t="n">
-        <v>70.19198500348156</v>
+        <v>60.0839826724461</v>
       </c>
       <c r="Y42" t="n">
-        <v>38.79044605608348</v>
+        <v>29.4288894722185</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="C43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="D43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="E43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="F43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="G43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="H43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="I43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="J43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="K43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="L43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="M43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="N43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="O43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="P43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="R43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="S43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="T43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="U43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="V43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="W43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="X43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>124.3500942316964</v>
+        <v>63.73806978191323</v>
       </c>
       <c r="C44" t="n">
-        <v>92.94855528429832</v>
+        <v>33.08297658168563</v>
       </c>
       <c r="D44" t="n">
-        <v>61.54701633690024</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="E44" t="n">
-        <v>30.14547738950216</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="F44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="G44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="H44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="I44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="J44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="K44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="L44" t="n">
-        <v>33.26365020697879</v>
+        <v>17.30451212993427</v>
       </c>
       <c r="M44" t="n">
-        <v>64.04029852932365</v>
+        <v>47.34956897547734</v>
       </c>
       <c r="N44" t="n">
-        <v>94.8169468516685</v>
+        <v>77.39462582102041</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3956078253586</v>
+        <v>107.4396826665635</v>
       </c>
       <c r="P44" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Q44" t="n">
-        <v>124.3500942316964</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="R44" t="n">
-        <v>124.3500942316964</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="S44" t="n">
-        <v>124.3500942316964</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="T44" t="n">
-        <v>124.3500942316964</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="U44" t="n">
-        <v>124.3500942316964</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="V44" t="n">
-        <v>124.3500942316964</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="W44" t="n">
-        <v>124.3500942316964</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="X44" t="n">
-        <v>124.3500942316964</v>
+        <v>90.73907587267369</v>
       </c>
       <c r="Y44" t="n">
-        <v>124.3500942316964</v>
+        <v>90.73907587267369</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33.88854083203201</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="C45" t="n">
-        <v>33.88854083203201</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="D45" t="n">
-        <v>33.88854083203201</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="E45" t="n">
-        <v>33.88854083203201</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="F45" t="n">
-        <v>33.88854083203201</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="G45" t="n">
-        <v>33.88854083203201</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="H45" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="I45" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="J45" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="K45" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="L45" t="n">
-        <v>32.02014926466184</v>
+        <v>32.35757744167192</v>
       </c>
       <c r="M45" t="n">
-        <v>62.79679758700669</v>
+        <v>62.40263428721499</v>
       </c>
       <c r="N45" t="n">
-        <v>93.57344590935155</v>
+        <v>92.44769113275807</v>
       </c>
       <c r="O45" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Q45" t="n">
-        <v>101.5935239508796</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="R45" t="n">
-        <v>101.5935239508796</v>
+        <v>94.39316298214082</v>
       </c>
       <c r="S45" t="n">
-        <v>101.5935239508796</v>
+        <v>63.73806978191323</v>
       </c>
       <c r="T45" t="n">
-        <v>101.5935239508796</v>
+        <v>33.08297658168563</v>
       </c>
       <c r="U45" t="n">
-        <v>101.5935239508796</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="V45" t="n">
-        <v>70.19198500348156</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="W45" t="n">
-        <v>38.79044605608348</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="X45" t="n">
-        <v>38.79044605608348</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="Y45" t="n">
-        <v>38.79044605608348</v>
+        <v>2.427883381458026</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="C46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="D46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="E46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="F46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="G46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="H46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="I46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="J46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="K46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="L46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="M46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="N46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="O46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="P46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="R46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="S46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="T46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="U46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="V46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="W46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="X46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458026</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322065</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863848</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853116</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P3" t="n">
         <v>67.92252959633595</v>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>99.68783188443095</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N5" t="n">
-        <v>94.48503193782835</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>45.70567566297714</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M6" t="n">
-        <v>24.74099426494271</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N6" t="n">
-        <v>4.110316593019235</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O6" t="n">
-        <v>36.58483411969954</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P6" t="n">
-        <v>57.92276625276133</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8695,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>65.00895600402526</v>
+        <v>65.00895600402524</v>
       </c>
       <c r="M11" t="n">
-        <v>23.86371338847812</v>
+        <v>23.25891136362965</v>
       </c>
       <c r="N11" t="n">
-        <v>2.491545449293005</v>
+        <v>17.19178828862402</v>
       </c>
       <c r="O11" t="n">
-        <v>36.76772534916256</v>
+        <v>36.7677253491625</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8932,19 +8932,19 @@
         <v>84.27780726850281</v>
       </c>
       <c r="L14" t="n">
-        <v>65.00895600402521</v>
+        <v>75.98907153795403</v>
       </c>
       <c r="M14" t="n">
-        <v>23.86371338847812</v>
+        <v>34.84382892240695</v>
       </c>
       <c r="N14" t="n">
-        <v>2.491545449292891</v>
+        <v>28.17190382255286</v>
       </c>
       <c r="O14" t="n">
-        <v>36.7677253491625</v>
+        <v>46.69939782656898</v>
       </c>
       <c r="P14" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>5.093443300258059</v>
+        <v>15.62991780251301</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9169,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>79.27897249523147</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M17" t="n">
-        <v>38.13372987968438</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N17" t="n">
-        <v>31.46180477983029</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O17" t="n">
-        <v>35.76093267816061</v>
+        <v>51.22834658803821</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9248,7 +9248,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
-        <v>13.69345016832925</v>
+        <v>30.99349195897977</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.28604556215212</v>
       </c>
       <c r="P18" t="n">
         <v>5.093443300258059</v>
@@ -9403,19 +9403,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>64.00216333302332</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M20" t="n">
-        <v>38.13372987968438</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N20" t="n">
-        <v>31.46180477983029</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O20" t="n">
-        <v>51.03774184036877</v>
+        <v>51.22834658803821</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9485,7 +9485,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L21" t="n">
-        <v>13.69345016832925</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="P21" t="n">
-        <v>5.093443300258059</v>
+        <v>34.25430737846489</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,19 +9640,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>69.22125343760848</v>
+        <v>84.60094559083477</v>
       </c>
       <c r="N23" t="n">
-        <v>62.54932833775439</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O23" t="n">
-        <v>67.36697494822727</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>36.90690098992484</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7036896688149739</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.41983346438747</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9877,19 +9877,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>69.22125343760848</v>
+        <v>84.60094559083477</v>
       </c>
       <c r="N26" t="n">
-        <v>62.54932833775439</v>
+        <v>77.92902049098068</v>
       </c>
       <c r="O26" t="n">
-        <v>67.36697494822727</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9959,19 +9959,19 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L27" t="n">
-        <v>43.52491216835743</v>
+        <v>61.3420342272051</v>
       </c>
       <c r="M27" t="n">
-        <v>14.96885011499907</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>5.913409030945076</v>
       </c>
       <c r="O27" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.093443300258059</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10120,13 +10120,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>69.22125343760848</v>
+        <v>84.60094559083477</v>
       </c>
       <c r="N29" t="n">
-        <v>62.54932833775439</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O29" t="n">
-        <v>67.36697494822727</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10193,10 +10193,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>38.70423724981399</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>29.25489567715115</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.41983346438747</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,13 +10357,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>69.22125343760848</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N32" t="n">
-        <v>62.54932833775439</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O32" t="n">
-        <v>67.36697494822727</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10430,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>45.96234207397882</v>
+        <v>38.70423724981399</v>
       </c>
       <c r="M33" t="n">
-        <v>12.53142020937766</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>5.093443300258059</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L35" t="n">
-        <v>79.46957724290091</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>54.25240332260944</v>
+        <v>69.63209547583575</v>
       </c>
       <c r="N35" t="n">
-        <v>47.58047822275535</v>
+        <v>62.96017037598166</v>
       </c>
       <c r="O35" t="n">
-        <v>67.15641528329382</v>
+        <v>82.26750016085229</v>
       </c>
       <c r="P35" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10670,7 +10670,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L36" t="n">
-        <v>30.99349195897977</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>14.28604556215212</v>
+        <v>30.05998007529348</v>
       </c>
       <c r="P36" t="n">
-        <v>5.093443300258059</v>
+        <v>65.83067550261472</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10828,19 +10828,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>95.39764593815653</v>
+        <v>99.79722255745398</v>
       </c>
       <c r="M38" t="n">
-        <v>38.32433462735381</v>
+        <v>58.65197994190689</v>
       </c>
       <c r="N38" t="n">
-        <v>47.58047822275535</v>
+        <v>51.98005484205279</v>
       </c>
       <c r="O38" t="n">
-        <v>67.15641528329382</v>
+        <v>69.54560335033158</v>
       </c>
       <c r="P38" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10907,7 +10907,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L39" t="n">
-        <v>29.16086407820683</v>
+        <v>35.39306857827722</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>16.11867344292506</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>5.093443300258059</v>
+        <v>28.0008814295183</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>81.12762944695032</v>
+        <v>80.38864815725154</v>
       </c>
       <c r="M41" t="n">
-        <v>39.98238683140318</v>
+        <v>39.2434055417044</v>
       </c>
       <c r="N41" t="n">
-        <v>33.31046173154914</v>
+        <v>32.57148044185036</v>
       </c>
       <c r="O41" t="n">
-        <v>37.53489641970906</v>
+        <v>36.8257729598971</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>57.52582647653074</v>
+        <v>56.07772172701999</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>81.12762944695032</v>
+        <v>65.0670036147598</v>
       </c>
       <c r="M44" t="n">
-        <v>39.98238683140318</v>
+        <v>39.24340554170442</v>
       </c>
       <c r="N44" t="n">
-        <v>33.31046173154914</v>
+        <v>32.57148044185038</v>
       </c>
       <c r="O44" t="n">
-        <v>37.53489641970906</v>
+        <v>52.14741750238886</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11381,7 +11381,7 @@
         <v>40.20975561493429</v>
       </c>
       <c r="L45" t="n">
-        <v>15.46741390987764</v>
+        <v>15.8679661120857</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.848656951718823</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>5.093443300258059</v>
@@ -22576,7 +22576,7 @@
         <v>78.22308851520961</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766585</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22731,7 +22731,7 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505841</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L4" t="n">
         <v>71.46654840866277</v>
@@ -22740,13 +22740,13 @@
         <v>68.66533643318368</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516951</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O4" t="n">
         <v>80.66114959698193</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028561</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q4" t="n">
         <v>157.5243583765053</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.2393938182636</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H5" t="n">
-        <v>350.2622638205034</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I5" t="n">
-        <v>255.5523639994917</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J5" t="n">
-        <v>106.1646981698697</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>65.77324371769876</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L5" t="n">
-        <v>23.04571500577052</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.911307002426383</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P5" t="n">
-        <v>60.25987232023019</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.0459730342341</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R5" t="n">
-        <v>213.3536458584578</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S5" t="n">
-        <v>236.6077625564944</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T5" t="n">
-        <v>219.6011498649016</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7935393162601</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.046439321575</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H6" t="n">
-        <v>138.0543186005382</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I6" t="n">
-        <v>118.0344046631496</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J6" t="n">
-        <v>84.43171408389495</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>16.12280710991256</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.84400791324805</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R6" t="n">
-        <v>156.3463334969579</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S6" t="n">
-        <v>208.6070930229634</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T6" t="n">
-        <v>230.2221530804288</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6516250615921</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2607674555123</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H7" t="n">
-        <v>167.8122202643745</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I7" t="n">
-        <v>168.529032519084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J7" t="n">
-        <v>134.1457888115874</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K7" t="n">
-        <v>90.52990087376823</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L7" t="n">
-        <v>64.93943331628564</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M7" t="n">
-        <v>61.78340873733809</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N7" t="n">
-        <v>49.3429483080664</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O7" t="n">
-        <v>74.45572062203514</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P7" t="n">
-        <v>93.04043633123673</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.848116654854</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R7" t="n">
-        <v>222.2398667230035</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S7" t="n">
-        <v>244.1518414419876</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T7" t="n">
-        <v>218.199378745922</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2210192262962</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23263,10 +23263,10 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D11" t="n">
-        <v>319.1317556432476</v>
+        <v>304.1629055282486</v>
       </c>
       <c r="E11" t="n">
-        <v>359.9585549362873</v>
+        <v>344.9897048212883</v>
       </c>
       <c r="F11" t="n">
         <v>399.146417573369</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.23937935806148</v>
+        <v>55.02366629176939</v>
       </c>
       <c r="R11" t="n">
-        <v>165.9043970077147</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S11" t="n">
         <v>209.8561796901649</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1531127343423</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U11" t="n">
         <v>248.7521737158166</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>173.0439072660354</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
         <v>203.8424276152394</v>
@@ -23345,22 +23345,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E12" t="n">
-        <v>187.4605452976028</v>
+        <v>172.4916951826038</v>
       </c>
       <c r="F12" t="n">
-        <v>173.9843481253239</v>
+        <v>160.7997849440328</v>
       </c>
       <c r="G12" t="n">
         <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>122.1978327507411</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>93.54030797786368</v>
+        <v>93.5403079778637</v>
       </c>
       <c r="J12" t="n">
-        <v>43.32485933570484</v>
+        <v>43.32485933570487</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>408.5377606314286</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
-        <v>329.9979705112284</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>220.6491724957633</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31017767184309</v>
+        <v>39.42317884326648</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>222.8032080668887</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>287.3554763520953</v>
       </c>
       <c r="W14" t="n">
         <v>325.3917254792934</v>
@@ -23563,7 +23563,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.9289763951821</v>
+        <v>351.9800107462543</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>146.1499767305843</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>147.5852192972233</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H15" t="n">
-        <v>120.4135458170332</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I15" t="n">
-        <v>93.54030797786366</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>43.32485933570483</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>139.1693410830749</v>
@@ -23627,16 +23627,16 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1070318577418</v>
+        <v>203.1580662088139</v>
       </c>
       <c r="U15" t="n">
         <v>249.633423953496</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>248.9730808146053</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>257.3002911140032</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23737,25 +23737,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>273.7742155941173</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>314.601014887157</v>
       </c>
       <c r="F17" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>395.9687301059741</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>315.7279540200221</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>206.379156004557</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>33.04016118063683</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>280.034185430163</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>308.8659580282389</v>
       </c>
       <c r="Y17" t="n">
         <v>377.9289763951821</v>
@@ -23813,28 +23813,28 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C18" t="n">
-        <v>178.0888339084938</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E18" t="n">
-        <v>187.4605452976028</v>
+        <v>147.5096240223288</v>
       </c>
       <c r="F18" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>131.5309158723091</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H18" t="n">
-        <v>106.1435293258269</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
         <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>29.05484284449857</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>139.1693410830749</v>
+        <v>93.81180103394456</v>
       </c>
       <c r="S18" t="n">
         <v>203.4683135038341</v>
@@ -23867,13 +23867,13 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
-        <v>249.633423953496</v>
+        <v>204.2758839043657</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>237.8917167138007</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>364.5563275970632</v>
+        <v>319.1987875479328</v>
       </c>
       <c r="C20" t="n">
         <v>333.5971194742085</v>
@@ -24022,16 +24022,16 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T20" t="n">
-        <v>188.0988093094281</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>219.5133071096113</v>
+        <v>208.8012524405426</v>
       </c>
       <c r="V20" t="n">
-        <v>284.0655753948178</v>
+        <v>267.9469019518928</v>
       </c>
       <c r="W20" t="n">
-        <v>299.6381317725478</v>
+        <v>280.034185430163</v>
       </c>
       <c r="X20" t="n">
         <v>348.8168793035129</v>
@@ -24095,25 +24095,25 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R21" t="n">
-        <v>109.9304744768696</v>
+        <v>99.21841980780093</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>158.1107734547038</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8681652515365</v>
+        <v>183.7494918086114</v>
       </c>
       <c r="U21" t="n">
-        <v>220.3945573472907</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V21" t="n">
-        <v>223.5463314734268</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
-        <v>230.033063710963</v>
+        <v>184.6755236618326</v>
       </c>
       <c r="Y21" t="n">
         <v>242.8962664135933</v>
@@ -24217,19 +24217,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560133</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7223238127198</v>
+        <v>346.0162414953641</v>
       </c>
       <c r="H23" t="n">
-        <v>284.640430462098</v>
+        <v>269.2607383088717</v>
       </c>
       <c r="I23" t="n">
-        <v>175.2916324466329</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J23" t="n">
-        <v>9.143543330276977</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>182.0702564106897</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.6025862310527</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="24">
@@ -24287,16 +24287,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>143.51603745111</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
-        <v>127.1341551334734</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F24" t="n">
-        <v>120.8488636687588</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
         <v>160.7697824785144</v>
@@ -24329,25 +24329,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>139.1693410830749</v>
+        <v>63.46325876571923</v>
       </c>
       <c r="S24" t="n">
-        <v>203.4683135038341</v>
+        <v>127.7622311864784</v>
       </c>
       <c r="T24" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>205.147012453054</v>
       </c>
       <c r="W24" t="n">
-        <v>222.9228665988017</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24451,13 +24451,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>284.2524726189316</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7223238127198</v>
+        <v>346.0162414953641</v>
       </c>
       <c r="H26" t="n">
         <v>344.9668206262274</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.07274501649532</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
-        <v>120.5468569585844</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S26" t="n">
-        <v>164.4986396410345</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T26" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
-        <v>188.4257835516872</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24508,10 +24508,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>348.8168793035129</v>
+        <v>282.134961998386</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.9289763951821</v>
+        <v>302.2228940778264</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>172.0989423795122</v>
+        <v>127.9460296523939</v>
       </c>
       <c r="E27" t="n">
         <v>187.4605452976028</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>139.1693410830749</v>
+        <v>63.46325876571923</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4683135038341</v>
+        <v>127.7622311864784</v>
       </c>
       <c r="T27" t="n">
-        <v>168.7806416936124</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U27" t="n">
-        <v>189.3070337893666</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V27" t="n">
-        <v>188.973535016043</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>252.6427768843745</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
@@ -24727,25 +24727,25 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R29" t="n">
-        <v>120.5468569585844</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
         <v>224.8250298051639</v>
       </c>
       <c r="T29" t="n">
-        <v>164.2021914590682</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W29" t="n">
-        <v>265.065335315164</v>
+        <v>258.7098081741665</v>
       </c>
       <c r="X29" t="n">
-        <v>288.4904891393835</v>
+        <v>273.1107969861572</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24764,7 +24764,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
-        <v>172.0989423795122</v>
+        <v>96.39286006215652</v>
       </c>
       <c r="E30" t="n">
         <v>187.4605452976028</v>
@@ -24773,7 +24773,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7697824785144</v>
+        <v>94.08786517338751</v>
       </c>
       <c r="H30" t="n">
         <v>135.3823959320322</v>
@@ -24803,22 +24803,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R30" t="n">
-        <v>78.84295091894552</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S30" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T30" t="n">
-        <v>168.7806416936124</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U30" t="n">
-        <v>219.0269440749394</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>173.5938428628167</v>
       </c>
       <c r="W30" t="n">
         <v>283.2492567629311</v>
@@ -24827,7 +24827,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>182.5698762494639</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="31">
@@ -24925,13 +24925,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>299.6321647721579</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>338.8200274092396</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>361.3959336485904</v>
+        <v>346.0162414953641</v>
       </c>
       <c r="H32" t="n">
         <v>344.9668206262274</v>
@@ -24970,19 +24970,19 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T32" t="n">
-        <v>164.2021914590682</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7521737158166</v>
+        <v>182.0702564106897</v>
       </c>
       <c r="V32" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W32" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>348.8168793035129</v>
+        <v>273.1107969861572</v>
       </c>
       <c r="Y32" t="n">
         <v>377.9289763951821</v>
@@ -25010,7 +25010,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7697824785144</v>
+        <v>85.06370016115874</v>
       </c>
       <c r="H33" t="n">
         <v>135.3823959320322</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>139.1693410830749</v>
+        <v>63.46325876571923</v>
       </c>
       <c r="S33" t="n">
-        <v>172.8618336252775</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1070318577418</v>
+        <v>184.9541191306234</v>
       </c>
       <c r="U33" t="n">
-        <v>189.3070337893666</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V33" t="n">
-        <v>188.973535016043</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>222.9228665988017</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25162,7 +25162,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
-        <v>320.0076336610133</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
         <v>399.146417573369</v>
@@ -25171,13 +25171,13 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H35" t="n">
-        <v>299.6092805770971</v>
+        <v>284.2295884238708</v>
       </c>
       <c r="I35" t="n">
-        <v>190.260482561632</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J35" t="n">
-        <v>16.92148773771177</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R35" t="n">
-        <v>180.8732471227138</v>
+        <v>127.3758929988781</v>
       </c>
       <c r="S35" t="n">
         <v>224.8250298051639</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3376759156334</v>
+        <v>156.6004437132767</v>
       </c>
       <c r="U35" t="n">
         <v>248.7521737158166</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>252.5672097986665</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>188.0127573810344</v>
+        <v>134.5154032571987</v>
       </c>
       <c r="C36" t="n">
-        <v>158.484887566109</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>132.1480211042382</v>
+        <v>111.3617101771555</v>
       </c>
       <c r="E36" t="n">
-        <v>142.1030052484725</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>128.6268080761936</v>
+        <v>113.2471159229672</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7697824785144</v>
+        <v>100.0325502761577</v>
       </c>
       <c r="H36" t="n">
         <v>135.3823959320322</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.5563275970632</v>
+        <v>314.7992109286354</v>
       </c>
       <c r="C38" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
-        <v>273.7742155941173</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>314.601014887157</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>349.3893009049413</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>371.965207144292</v>
       </c>
       <c r="H38" t="n">
-        <v>299.6092805770971</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I38" t="n">
         <v>235.6180226107624</v>
@@ -25441,7 +25441,7 @@
         <v>180.8732471227138</v>
       </c>
       <c r="S38" t="n">
-        <v>184.8741085298899</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
         <v>217.3376759156334</v>
@@ -25459,7 +25459,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
-        <v>377.9289763951821</v>
+        <v>334.1029080336309</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>138.2556407126066</v>
       </c>
       <c r="C39" t="n">
-        <v>203.8424276152394</v>
+        <v>154.0853109468116</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>128.272874017961</v>
       </c>
       <c r="E39" t="n">
-        <v>170.0386286003374</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>128.6268080761936</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
         <v>160.7697824785144</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R39" t="n">
         <v>139.1693410830749</v>
@@ -25535,10 +25535,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
-        <v>184.6755236618326</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.538726364463</v>
+        <v>193.1391497451655</v>
       </c>
     </row>
     <row r="40">
@@ -25630,22 +25630,22 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>302.5095959162844</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>288.0442320853235</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>368.7978753051437</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7223238127198</v>
+        <v>391.3737815444944</v>
       </c>
       <c r="H41" t="n">
-        <v>344.9668206262274</v>
+        <v>314.6182783580021</v>
       </c>
       <c r="I41" t="n">
         <v>235.6180226107624</v>
@@ -25690,13 +25690,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>294.3042019213693</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.5470856453626</v>
+        <v>351.1979803653293</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.9252338231103</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>198.9895414434284</v>
+        <v>177.1114315853865</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25751,13 +25751,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R42" t="n">
         <v>139.169341083075</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4683135038341</v>
+        <v>173.1197712356088</v>
       </c>
       <c r="T42" t="n">
         <v>229.1070318577418</v>
@@ -25769,13 +25769,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>252.161733205007</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
-        <v>230.033063710963</v>
+        <v>199.6845214427377</v>
       </c>
       <c r="Y42" t="n">
-        <v>211.8087428556692</v>
+        <v>212.547724145368</v>
       </c>
     </row>
     <row r="43">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>337.8253315672103</v>
       </c>
       <c r="C44" t="n">
-        <v>302.5095959162844</v>
+        <v>303.2485772059831</v>
       </c>
       <c r="D44" t="n">
-        <v>288.0442320853235</v>
+        <v>288.7832133750223</v>
       </c>
       <c r="E44" t="n">
-        <v>328.8710313783632</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>371.7645268235495</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
         <v>421.7223238127198</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.20822947306053</v>
+        <v>37.8596872048352</v>
       </c>
       <c r="R44" t="n">
         <v>180.8732471227138</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>183.1598712092235</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C45" t="n">
         <v>203.8424276152394</v>
@@ -25961,7 +25961,7 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H45" t="n">
-        <v>104.2948723741081</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I45" t="n">
         <v>108.5091580928627</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R45" t="n">
-        <v>139.169341083075</v>
+        <v>112.4383450532221</v>
       </c>
       <c r="S45" t="n">
-        <v>203.4683135038341</v>
+        <v>173.1197712356088</v>
       </c>
       <c r="T45" t="n">
-        <v>229.1070318577418</v>
+        <v>198.7584895895164</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>219.2848816852707</v>
       </c>
       <c r="V45" t="n">
-        <v>218.2124016222483</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>252.161733205007</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379918.1917255052</v>
+        <v>368579.4216490745</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>431599.3866572362</v>
+        <v>431599.3866572363</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>431599.3866572363</v>
+        <v>439139.0918459334</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>441398.1649168167</v>
+        <v>452603.04498716</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>441398.1649168166</v>
+        <v>452603.04498716</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>463135.5623452718</v>
+        <v>474023.8346357081</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>463135.5623452719</v>
+        <v>474023.8346357081</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>463135.5623452716</v>
+        <v>474023.8346357081</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>463135.5623452718</v>
+        <v>474023.8346357081</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>452603.0449871602</v>
+        <v>463424.6427265853</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>452603.04498716</v>
+        <v>455698.714778433</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>442683.2569877345</v>
+        <v>442169.5548673569</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>442683.2569877343</v>
+        <v>442169.5548673569</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>121999.4754572633</v>
+      </c>
+      <c r="C2" t="n">
         <v>121999.4754572634</v>
-      </c>
-      <c r="C2" t="n">
-        <v>126293.6093029788</v>
       </c>
       <c r="D2" t="n">
         <v>128874.5116613649</v>
@@ -26325,37 +26325,37 @@
         <v>146256.3526234022</v>
       </c>
       <c r="F2" t="n">
-        <v>146256.3526234022</v>
+        <v>148595.7312401898</v>
       </c>
       <c r="G2" t="n">
-        <v>149296.6641153514</v>
+        <v>152730.8429149133</v>
       </c>
       <c r="H2" t="n">
-        <v>149296.6641153514</v>
+        <v>152730.8429149133</v>
       </c>
       <c r="I2" t="n">
-        <v>155920.0450475065</v>
+        <v>159196.7795085291</v>
       </c>
       <c r="J2" t="n">
-        <v>155920.0450475066</v>
+        <v>159196.7795085291</v>
       </c>
       <c r="K2" t="n">
-        <v>155920.0450475066</v>
+        <v>159196.7795085291</v>
       </c>
       <c r="L2" t="n">
-        <v>155920.0450475066</v>
+        <v>159196.7795085291</v>
       </c>
       <c r="M2" t="n">
-        <v>152730.8429149134</v>
+        <v>156007.5773759358</v>
       </c>
       <c r="N2" t="n">
-        <v>152730.8429149133</v>
+        <v>153668.1987591482</v>
       </c>
       <c r="O2" t="n">
-        <v>149690.5314229643</v>
+        <v>149533.0870844247</v>
       </c>
       <c r="P2" t="n">
-        <v>149690.5314229642</v>
+        <v>149533.0870844247</v>
       </c>
     </row>
     <row r="3">
@@ -26368,25 +26368,25 @@
         <v>300331.6078316385</v>
       </c>
       <c r="C3" t="n">
-        <v>22169.49049151751</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12531.60992173087</v>
+        <v>33381.84090058054</v>
       </c>
       <c r="E3" t="n">
-        <v>96048.07996408457</v>
+        <v>96048.07996408455</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3146.088583474502</v>
       </c>
       <c r="G3" t="n">
-        <v>3911.197469992269</v>
+        <v>5319.5991144795</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8266.825352046735</v>
+        <v>8070.314708508748</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16136.49255031373</v>
+        <v>16136.49255031374</v>
       </c>
       <c r="C4" t="n">
-        <v>15069.98707245499</v>
+        <v>16136.49255031374</v>
       </c>
       <c r="D4" t="n">
         <v>14463.5461665856</v>
       </c>
       <c r="E4" t="n">
-        <v>9091.881153587803</v>
+        <v>9091.881153587801</v>
       </c>
       <c r="F4" t="n">
-        <v>9091.881153587799</v>
+        <v>9881.3377076053</v>
       </c>
       <c r="G4" t="n">
-        <v>10117.87746574952</v>
+        <v>11413.47624804631</v>
       </c>
       <c r="H4" t="n">
-        <v>10117.87746574952</v>
+        <v>11413.47624804631</v>
       </c>
       <c r="I4" t="n">
-        <v>12743.58952040236</v>
+        <v>14176.8842526962</v>
       </c>
       <c r="J4" t="n">
-        <v>12743.58952040236</v>
+        <v>14176.8842526962</v>
       </c>
       <c r="K4" t="n">
-        <v>12743.58952040236</v>
+        <v>14176.8842526962</v>
       </c>
       <c r="L4" t="n">
-        <v>12743.58952040236</v>
+        <v>14176.8842526962</v>
       </c>
       <c r="M4" t="n">
-        <v>11413.47624804631</v>
+        <v>12780.09642932921</v>
       </c>
       <c r="N4" t="n">
-        <v>11413.47624804631</v>
+        <v>11804.41711585627</v>
       </c>
       <c r="O4" t="n">
-        <v>10266.47019603917</v>
+        <v>10207.0718055659</v>
       </c>
       <c r="P4" t="n">
-        <v>10266.47019603917</v>
+        <v>10207.07180556591</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>40422.05903150925</v>
       </c>
       <c r="C5" t="n">
-        <v>40952.80121384036</v>
+        <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
@@ -26481,37 +26481,37 @@
         <v>11039.24867339523</v>
       </c>
       <c r="F5" t="n">
-        <v>11039.24867339523</v>
+        <v>11706.8396978581</v>
       </c>
       <c r="G5" t="n">
-        <v>11906.86567606057</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="H5" t="n">
-        <v>11906.86567606057</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="I5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="J5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="K5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="L5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="M5" t="n">
-        <v>12886.88102139042</v>
+        <v>13821.96630430658</v>
       </c>
       <c r="N5" t="n">
-        <v>12886.88102139042</v>
+        <v>13154.3752798437</v>
       </c>
       <c r="O5" t="n">
-        <v>12019.26401872507</v>
+        <v>11974.33395631139</v>
       </c>
       <c r="P5" t="n">
-        <v>12019.26401872507</v>
+        <v>11974.33395631139</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234890.6839561982</v>
+        <v>-251933.0716441135</v>
       </c>
       <c r="C6" t="n">
-        <v>48101.33052516598</v>
+        <v>48398.536187525</v>
       </c>
       <c r="D6" t="n">
-        <v>60607.56249745229</v>
+        <v>23096.89028647065</v>
       </c>
       <c r="E6" t="n">
-        <v>30077.14283233463</v>
+        <v>14382.35943142695</v>
       </c>
       <c r="F6" t="n">
-        <v>126125.2227964192</v>
+        <v>108296.6473290547</v>
       </c>
       <c r="G6" t="n">
-        <v>123360.723503549</v>
+        <v>107775.7970351734</v>
       </c>
       <c r="H6" t="n">
-        <v>127271.9209735413</v>
+        <v>113095.3961496529</v>
       </c>
       <c r="I6" t="n">
-        <v>121112.6430666751</v>
+        <v>107241.6373598472</v>
       </c>
       <c r="J6" t="n">
-        <v>129379.4684187219</v>
+        <v>115311.9520683559</v>
       </c>
       <c r="K6" t="n">
-        <v>129379.4684187219</v>
+        <v>115311.952068356</v>
       </c>
       <c r="L6" t="n">
-        <v>129379.4684187219</v>
+        <v>115311.9520683559</v>
       </c>
       <c r="M6" t="n">
-        <v>128430.4856454766</v>
+        <v>114252.4659498664</v>
       </c>
       <c r="N6" t="n">
-        <v>128430.4856454766</v>
+        <v>113426.3921923043</v>
       </c>
       <c r="O6" t="n">
-        <v>127404.7972082</v>
+        <v>111838.9387250299</v>
       </c>
       <c r="P6" t="n">
-        <v>127404.7972082</v>
+        <v>111838.9387250298</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>336.0184043046039</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="F4" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="G4" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="H4" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="I4" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="J4" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="K4" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="L4" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="M4" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="N4" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="O4" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="P4" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>24.34597166656509</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.63265420898172</v>
+        <v>38.97862587554681</v>
       </c>
       <c r="E3" t="n">
         <v>113.9885096700515</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.98011553392886</v>
       </c>
       <c r="G4" t="n">
-        <v>14.27001649120626</v>
+        <v>19.40857440020249</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822533</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10.98011553392886</v>
       </c>
       <c r="O4" t="n">
-        <v>14.27001649120626</v>
+        <v>19.40857440020249</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31080,7 +31080,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177949</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U2" t="n">
         <v>0.1002363602453993</v>
@@ -31123,7 +31123,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160016</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I3" t="n">
         <v>23.08140185102458</v>
@@ -31138,7 +31138,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877312</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N3" t="n">
         <v>174.3572036132365</v>
@@ -31208,10 +31208,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927915</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973993</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L4" t="n">
         <v>83.55886825184406</v>
@@ -31220,13 +31220,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567396</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O4" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994208</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q4" t="n">
         <v>47.06253732834386</v>
@@ -31235,7 +31235,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460987</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T4" t="n">
         <v>2.40141054655538</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.350827755998407</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H5" t="n">
-        <v>13.83416475611869</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>52.07778706312862</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J5" t="n">
-        <v>114.6498172556699</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K5" t="n">
-        <v>171.8303561670824</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L5" t="n">
-        <v>213.1707511047187</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M5" t="n">
-        <v>237.1935342104554</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N5" t="n">
-        <v>241.0315735721859</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5992800734767</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P5" t="n">
-        <v>194.250719847266</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q5" t="n">
-        <v>145.874200835573</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>84.85393402773498</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S5" t="n">
-        <v>30.78198748981372</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T5" t="n">
-        <v>5.913248501883028</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1080662204798725</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7227565677495255</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H6" t="n">
-        <v>6.980306851686207</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I6" t="n">
-        <v>24.88438182821831</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J6" t="n">
-        <v>68.28464572759881</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K6" t="n">
-        <v>116.709335766817</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L6" t="n">
-        <v>156.9301047650889</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M6" t="n">
-        <v>183.1300303460091</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N6" t="n">
-        <v>187.9769373288557</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O6" t="n">
-        <v>171.9621733803004</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P6" t="n">
-        <v>138.0148045906967</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.25924187623767</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R6" t="n">
-        <v>44.87430689939599</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S6" t="n">
-        <v>13.4248862474528</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T6" t="n">
-        <v>2.913216165621989</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04754977419404775</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6059348274345315</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>5.387311465736111</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I7" t="n">
-        <v>18.22211281048574</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J7" t="n">
-        <v>42.83959229962138</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K7" t="n">
-        <v>70.39860995103011</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L7" t="n">
-        <v>90.08598334422119</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M7" t="n">
-        <v>94.98303844957842</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N7" t="n">
-        <v>92.72455409277707</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O7" t="n">
-        <v>85.64613360865546</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P7" t="n">
-        <v>73.28506312899096</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.73877904999519</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R7" t="n">
-        <v>27.24503324082902</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S7" t="n">
-        <v>10.55979149265452</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T7" t="n">
-        <v>2.588994262674816</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03305099058733812</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M12" t="n">
-        <v>222.8398747259509</v>
+        <v>222.8398747259508</v>
       </c>
       <c r="N12" t="n">
         <v>207.056104036874</v>
@@ -32086,13 +32086,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M15" t="n">
-        <v>222.8398747259509</v>
+        <v>233.8199902598797</v>
       </c>
       <c r="N15" t="n">
-        <v>207.056104036874</v>
+        <v>218.0362195708028</v>
       </c>
       <c r="O15" t="n">
-        <v>223.515857614999</v>
+        <v>234.4959731489278</v>
       </c>
       <c r="P15" t="n">
         <v>190.8441275431999</v>
@@ -32323,10 +32323,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M18" t="n">
-        <v>237.1098912171571</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>221.3261205280803</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -32560,10 +32560,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M21" t="n">
-        <v>237.1098912171571</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N21" t="n">
-        <v>221.3261205280803</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O21" t="n">
         <v>237.7858741062053</v>
@@ -32800,7 +32800,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N24" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O24" t="n">
         <v>237.7858741062053</v>
@@ -33037,7 +33037,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N27" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O27" t="n">
         <v>237.7858741062053</v>
@@ -33274,7 +33274,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N30" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O30" t="n">
         <v>237.7858741062053</v>
@@ -33511,7 +33511,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N33" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O33" t="n">
         <v>237.7858741062053</v>
@@ -33748,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>237.4447939710053</v>
+        <v>252.8244861242317</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33985,7 +33985,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>237.4447939710053</v>
+        <v>241.8443705903028</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -34219,10 +34219,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>238.9585481688759</v>
+        <v>238.2195668791771</v>
       </c>
       <c r="N42" t="n">
-        <v>223.1747774797991</v>
+        <v>222.4357961901003</v>
       </c>
       <c r="O42" t="n">
         <v>237.7858741062053</v>
@@ -34456,10 +34456,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>238.9585481688759</v>
+        <v>238.2195668791771</v>
       </c>
       <c r="N45" t="n">
-        <v>223.1747774797991</v>
+        <v>222.4357961901003</v>
       </c>
       <c r="O45" t="n">
         <v>237.7858741062053</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="M11" t="n">
-        <v>14.96885011499904</v>
+        <v>14.36404809015057</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2686072756679662</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="O11" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="P11" t="n">
-        <v>14.09544081448263</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>14.36404809015056</v>
       </c>
       <c r="M12" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="N12" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="O12" t="n">
-        <v>14.96885011499908</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="M14" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2686072756679088</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="O14" t="n">
-        <v>14.96885011499904</v>
+        <v>24.90052259240553</v>
       </c>
       <c r="P14" t="n">
-        <v>14.09544081448269</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>14.36404809015059</v>
       </c>
       <c r="M15" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="N15" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="O15" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892787</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>10.53647450225496</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O17" t="n">
-        <v>13.96205744399715</v>
+        <v>29.42947135387475</v>
       </c>
       <c r="P17" t="n">
         <v>14.09544081448269</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>28.05749825847984</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O18" t="n">
-        <v>29.23886660620531</v>
+        <v>43.52491216835742</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>13.96205744399715</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O20" t="n">
-        <v>29.23886660620531</v>
+        <v>29.42947135387475</v>
       </c>
       <c r="P20" t="n">
         <v>14.09544081448269</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>28.05749825847984</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.16086407820682</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M23" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="N23" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="O23" t="n">
-        <v>45.56809971406381</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="P23" t="n">
         <v>14.09544081448269</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>14.36404809015059</v>
+        <v>51.27094908007543</v>
       </c>
       <c r="M24" t="n">
-        <v>45.35754004913036</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="N24" t="n">
-        <v>60.32639016412941</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O24" t="n">
-        <v>29.94255627502028</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P24" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M26" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="N26" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="O26" t="n">
-        <v>45.56809971406381</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P26" t="n">
         <v>14.09544081448269</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>57.88896025850802</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="M27" t="n">
-        <v>60.32639016412941</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N27" t="n">
-        <v>60.32639016412941</v>
+        <v>73.75692637059365</v>
       </c>
       <c r="O27" t="n">
-        <v>60.32639016412941</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M29" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="N29" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O29" t="n">
-        <v>45.56809971406381</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="P29" t="n">
         <v>14.09544081448269</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L30" t="n">
-        <v>14.36404809015059</v>
+        <v>53.06828533996458</v>
       </c>
       <c r="M30" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N30" t="n">
-        <v>60.32639016412941</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O30" t="n">
-        <v>58.49376228335646</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P30" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M32" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="N32" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="O32" t="n">
-        <v>45.56809971406381</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="P32" t="n">
         <v>14.09544081448269</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L33" t="n">
-        <v>60.32639016412941</v>
+        <v>53.06828533996458</v>
       </c>
       <c r="M33" t="n">
-        <v>57.88896025850802</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N33" t="n">
-        <v>60.32639016412941</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O33" t="n">
-        <v>60.32639016412941</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>75.70608231735569</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>29.42947135387474</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M35" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="N35" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="O35" t="n">
-        <v>45.35754004913036</v>
+        <v>60.46862492668883</v>
       </c>
       <c r="P35" t="n">
-        <v>14.09544081448269</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>45.35754004913036</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M36" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N36" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="O36" t="n">
-        <v>43.52491216835742</v>
+        <v>59.29884668149879</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>60.73723220235668</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="M38" t="n">
-        <v>29.42947135387474</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="N38" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="O38" t="n">
-        <v>45.35754004913036</v>
+        <v>47.74672811616811</v>
       </c>
       <c r="P38" t="n">
-        <v>14.09544081448269</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>43.52491216835742</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="M39" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N39" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842781</v>
       </c>
       <c r="O39" t="n">
-        <v>45.35754004913036</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>22.90743812926024</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="M41" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N41" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="O41" t="n">
-        <v>15.73602118554555</v>
+        <v>15.02689772573359</v>
       </c>
       <c r="P41" t="n">
         <v>14.09544081448263</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>17.31607086159645</v>
+        <v>15.8679661120857</v>
       </c>
       <c r="L42" t="n">
         <v>14.36404809015056</v>
       </c>
       <c r="M42" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N42" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="O42" t="n">
         <v>29.23886660620528</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>31.0875235579241</v>
+        <v>15.02689772573358</v>
       </c>
       <c r="M44" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N44" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="O44" t="n">
-        <v>15.73602118554555</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="P44" t="n">
         <v>14.09544081448263</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>29.8314620000282</v>
+        <v>30.23201420223626</v>
       </c>
       <c r="M45" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N45" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="O45" t="n">
-        <v>31.0875235579241</v>
+        <v>29.23886660620528</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
